--- a/biology/Botanique/Château_Coloma/Château_Coloma.xlsx
+++ b/biology/Botanique/Château_Coloma/Château_Coloma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Coloma</t>
+          <t>Château_Coloma</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château Coloma, situé à Leeuw-Saint-Pierre, est un château datant du XVIIe siècle. Il est édifié au milieu d'un plan d'eau.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Coloma</t>
+          <t>Château_Coloma</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien siège de l’importante seigneurie de Leeuw-Saint-Pierre, le château Coloma, de style renaissance, porte le nom d’un chambellan de l’impératrice Marie-Thérèse d’Autriche, Charles de Coloma qui en est devenu propriétaire par son mariage, en 1745, avec Eugénie Roose van der Gracht, petite-fille de Jean-Charles Roose qui avait acheté la seigneurie de Leeuw-Saint-Pierre en 1687.
 Une forteresse carrée avait été construite aux environs de 1515 par Léonard Vandenhecke, échevin de Bruxelles.  Après plusieurs changements de propriétaire, elle entre, par le jeu des alliances, dans le patrimoine de Jean-Charles Roose, capitaine de cavalerie dans l’armée espagnole, élevé le 20 décembre 1690 au rang de baron de Leeuw-Saint-Pierre par Charles II d’Espagne. En l’absence de descendant, le domaine passe ensuite à la branche cadette de la famille avant d’aboutir chez les Coloma.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Coloma</t>
+          <t>Château_Coloma</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Le parc et la roseraie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc du château, d’une superficie de quinze hectares, est géré par la Communauté flamande et intégré dans la ceinture verte autour de Bruxelles. L’étang rectangulaire, le canal et les grandes allées témoignent encore du parc symétrique à la française d’origine. Au sud, les jardins ont fait place, à la fin du XVIIIe siècle, à un parc à l’anglaise légèrement vallonné avec ses grandes pelouses parsemées d’arbres solitaires et ses chemins ondoyants. L'espace entre le parc et le centre du village a été aménagé en verger.
 Disséminés dans le parc, on peut encore voir les anciennes écuries converties aux besoins de la roseraie voisine, une remise (1731) et un pavillon entre pignons à redents et tour ronde sous toit conique, daté de la fin du XVIIIe siècle.  La remise, de style renaissance, présente une arcature sur colonnes doriques, de jolies portes et des fenêtres en plein cintre à meneaux.  Elle abrite aujourd’hui une agréable taverne.  Isolée sur une colline, la tour carrée rappelle le donjon d’un ancien manoir.  Elle accueille un petit musée de la rose.
-Une roseraie, divisée en quatre parcelles contenant plus de 3 000 variétés de rosiers originaires d’Europe, d’Amérique et d’Australie, a été aménagée à la fin du XXe siècle[1]. La première partie (1995) marie les roses rouges et blanches dans un corset géométrique, réminiscence des jardins d’autrefois, de l’histoire du domaine et des couleurs de la commune. La deuxième (1996) abrite, dans des figures circulaires autour d’un dôme, des rosiers d’horticulteurs flamands, primés lors de concours nationaux ou internationaux.  Le travail de pionnier de Louis Lens sur les variétés botaniques est particulièrement mis à l’honneur. La troisième (2000) raconte l’épopée de la rose depuis l’Antiquité. La quatrième parcelle (2000) enfin, de loin la plus grande, présente des rosiers primés venus du monde entier. Elle est aménagée en style paysager et divisée en aires géographiques de provenance.
+Une roseraie, divisée en quatre parcelles contenant plus de 3 000 variétés de rosiers originaires d’Europe, d’Amérique et d’Australie, a été aménagée à la fin du XXe siècle. La première partie (1995) marie les roses rouges et blanches dans un corset géométrique, réminiscence des jardins d’autrefois, de l’histoire du domaine et des couleurs de la commune. La deuxième (1996) abrite, dans des figures circulaires autour d’un dôme, des rosiers d’horticulteurs flamands, primés lors de concours nationaux ou internationaux.  Le travail de pionnier de Louis Lens sur les variétés botaniques est particulièrement mis à l’honneur. La troisième (2000) raconte l’épopée de la rose depuis l’Antiquité. La quatrième parcelle (2000) enfin, de loin la plus grande, présente des rosiers primés venus du monde entier. Elle est aménagée en style paysager et divisée en aires géographiques de provenance.
 </t>
         </is>
       </c>
